--- a/data_month/zb/价格指数/分行业中类工业生产者出厂价格指数(上年同月=100)(2014-2017)/家具制造业工业生产者出厂价格指数(上年同月=100).xlsx
+++ b/data_month/zb/价格指数/分行业中类工业生产者出厂价格指数(上年同月=100)(2014-2017)/家具制造业工业生产者出厂价格指数(上年同月=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -463,1010 +463,1010 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>101.229</v>
+        <v>99.6036</v>
       </c>
       <c r="C2" t="n">
-        <v>101.3071</v>
+        <v>100.0928</v>
       </c>
       <c r="D2" t="n">
-        <v>101.7533</v>
+        <v>100.5509</v>
       </c>
       <c r="E2" t="n">
-        <v>97.0266</v>
+        <v>101.4728</v>
       </c>
       <c r="F2" t="n">
-        <v>100.0246</v>
+        <v>98.91589999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101.3091</v>
+        <v>99.89919999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>101.7896</v>
+        <v>100.3184</v>
       </c>
       <c r="D3" t="n">
-        <v>101.4908</v>
+        <v>100.9081</v>
       </c>
       <c r="E3" t="n">
-        <v>96.8676</v>
+        <v>102.1503</v>
       </c>
       <c r="F3" t="n">
-        <v>100.2888</v>
+        <v>99.14279999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>101.1944</v>
+        <v>99.87909999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>101.6945</v>
+        <v>100.4133</v>
       </c>
       <c r="D4" t="n">
-        <v>101.3461</v>
+        <v>100.9195</v>
       </c>
       <c r="E4" t="n">
-        <v>96.6099</v>
+        <v>100.3967</v>
       </c>
       <c r="F4" t="n">
-        <v>100.4044</v>
+        <v>99.2534</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2014年1月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>99.6036</v>
+        <v>100.2248</v>
       </c>
       <c r="C5" t="n">
-        <v>100.0928</v>
+        <v>100.2885</v>
       </c>
       <c r="D5" t="n">
-        <v>100.5509</v>
+        <v>101.0403</v>
       </c>
       <c r="E5" t="n">
-        <v>101.4728</v>
+        <v>99.3246</v>
       </c>
       <c r="F5" t="n">
-        <v>98.91589999999999</v>
+        <v>99.339</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>99.89919999999999</v>
+        <v>100.315</v>
       </c>
       <c r="C6" t="n">
-        <v>100.3184</v>
+        <v>100.1423</v>
       </c>
       <c r="D6" t="n">
-        <v>100.9081</v>
+        <v>101.4032</v>
       </c>
       <c r="E6" t="n">
-        <v>102.1503</v>
+        <v>98.35290000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>99.14279999999999</v>
+        <v>99.6305</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.87909999999999</v>
+        <v>100.0816</v>
       </c>
       <c r="C7" t="n">
-        <v>100.4133</v>
+        <v>99.94119999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>100.9195</v>
+        <v>101.69</v>
       </c>
       <c r="E7" t="n">
-        <v>100.3967</v>
+        <v>98.67919999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>99.2534</v>
+        <v>99.893</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>100.2248</v>
+        <v>100.5794</v>
       </c>
       <c r="C8" t="n">
-        <v>100.2885</v>
+        <v>99.9132</v>
       </c>
       <c r="D8" t="n">
-        <v>101.0403</v>
+        <v>101.8313</v>
       </c>
       <c r="E8" t="n">
-        <v>99.3246</v>
+        <v>98.52760000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>99.339</v>
+        <v>99.7865</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>100.315</v>
+        <v>100.5848</v>
       </c>
       <c r="C9" t="n">
-        <v>100.1423</v>
+        <v>100.8362</v>
       </c>
       <c r="D9" t="n">
-        <v>101.4032</v>
+        <v>101.7791</v>
       </c>
       <c r="E9" t="n">
-        <v>98.35290000000001</v>
+        <v>97.4384</v>
       </c>
       <c r="F9" t="n">
-        <v>99.6305</v>
+        <v>99.8794</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>100.0816</v>
+        <v>100.7383</v>
       </c>
       <c r="C10" t="n">
-        <v>99.94119999999999</v>
+        <v>101.1837</v>
       </c>
       <c r="D10" t="n">
-        <v>101.69</v>
+        <v>101.8988</v>
       </c>
       <c r="E10" t="n">
-        <v>98.67919999999999</v>
+        <v>97.2698</v>
       </c>
       <c r="F10" t="n">
-        <v>99.893</v>
+        <v>100.0543</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100.5794</v>
+        <v>101.229</v>
       </c>
       <c r="C11" t="n">
-        <v>99.9132</v>
+        <v>101.3071</v>
       </c>
       <c r="D11" t="n">
-        <v>101.8313</v>
+        <v>101.7533</v>
       </c>
       <c r="E11" t="n">
-        <v>98.52760000000001</v>
+        <v>97.0266</v>
       </c>
       <c r="F11" t="n">
-        <v>99.7865</v>
+        <v>100.0246</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>100.5848</v>
+        <v>101.3091</v>
       </c>
       <c r="C12" t="n">
-        <v>100.8362</v>
+        <v>101.7896</v>
       </c>
       <c r="D12" t="n">
-        <v>101.7791</v>
+        <v>101.4908</v>
       </c>
       <c r="E12" t="n">
-        <v>97.4384</v>
+        <v>96.8676</v>
       </c>
       <c r="F12" t="n">
-        <v>99.8794</v>
+        <v>100.2888</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>100.7383</v>
+        <v>101.1944</v>
       </c>
       <c r="C13" t="n">
-        <v>101.1837</v>
+        <v>101.6945</v>
       </c>
       <c r="D13" t="n">
-        <v>101.8988</v>
+        <v>101.3461</v>
       </c>
       <c r="E13" t="n">
-        <v>97.2698</v>
+        <v>96.6099</v>
       </c>
       <c r="F13" t="n">
-        <v>100.0543</v>
+        <v>100.4044</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>99.5</v>
+        <v>100.7772</v>
       </c>
       <c r="C14" t="n">
-        <v>100.1</v>
+        <v>101.7806</v>
       </c>
       <c r="D14" t="n">
-        <v>100.7</v>
+        <v>101.2339</v>
       </c>
       <c r="E14" t="n">
-        <v>100.6</v>
+        <v>96.68819999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>101</v>
+        <v>100.6466</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.40000000000001</v>
+        <v>100.7286</v>
       </c>
       <c r="C15" t="n">
-        <v>99.70310000000001</v>
+        <v>101.6728</v>
       </c>
       <c r="D15" t="n">
-        <v>100.4551</v>
+        <v>100.9552</v>
       </c>
       <c r="E15" t="n">
-        <v>100.6871</v>
+        <v>96.77500000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>100.8479</v>
+        <v>100.5885</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99.70010000000001</v>
+        <v>100.7287</v>
       </c>
       <c r="C16" t="n">
-        <v>99.9221</v>
+        <v>101.9228</v>
       </c>
       <c r="D16" t="n">
-        <v>100.6475</v>
+        <v>101.0149</v>
       </c>
       <c r="E16" t="n">
-        <v>101.5727</v>
+        <v>96.7676</v>
       </c>
       <c r="F16" t="n">
-        <v>100.9375</v>
+        <v>100.475</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2015年1月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>100.7772</v>
+        <v>100.3692</v>
       </c>
       <c r="C17" t="n">
-        <v>101.7806</v>
+        <v>102.0421</v>
       </c>
       <c r="D17" t="n">
-        <v>101.2339</v>
+        <v>100.8214</v>
       </c>
       <c r="E17" t="n">
-        <v>96.68819999999999</v>
+        <v>99.5243</v>
       </c>
       <c r="F17" t="n">
-        <v>100.6466</v>
+        <v>100.4037</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>100.7286</v>
+        <v>100.3392</v>
       </c>
       <c r="C18" t="n">
-        <v>101.6728</v>
+        <v>102.4754</v>
       </c>
       <c r="D18" t="n">
-        <v>100.9552</v>
+        <v>100.676</v>
       </c>
       <c r="E18" t="n">
-        <v>96.77500000000001</v>
+        <v>98.25369999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>100.5885</v>
+        <v>100.2713</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>100.7287</v>
+        <v>99.9987</v>
       </c>
       <c r="C19" t="n">
-        <v>101.9228</v>
+        <v>102.2878</v>
       </c>
       <c r="D19" t="n">
-        <v>101.0149</v>
+        <v>100.5115</v>
       </c>
       <c r="E19" t="n">
-        <v>96.7676</v>
+        <v>98.2092</v>
       </c>
       <c r="F19" t="n">
-        <v>100.475</v>
+        <v>100.2809</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>100.3692</v>
+        <v>99.6896</v>
       </c>
       <c r="C20" t="n">
-        <v>102.0421</v>
+        <v>101.9651</v>
       </c>
       <c r="D20" t="n">
-        <v>100.8214</v>
+        <v>100.509</v>
       </c>
       <c r="E20" t="n">
-        <v>99.5243</v>
+        <v>98.1986</v>
       </c>
       <c r="F20" t="n">
-        <v>100.4037</v>
+        <v>100.4345</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>100.3392</v>
+        <v>99.81010000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>102.4754</v>
+        <v>100.701</v>
       </c>
       <c r="D21" t="n">
-        <v>100.676</v>
+        <v>100.4467</v>
       </c>
       <c r="E21" t="n">
-        <v>98.25369999999999</v>
+        <v>99.0686</v>
       </c>
       <c r="F21" t="n">
-        <v>100.2713</v>
+        <v>100.5848</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>99.9987</v>
+        <v>99.9365</v>
       </c>
       <c r="C22" t="n">
-        <v>102.2878</v>
+        <v>100.4496</v>
       </c>
       <c r="D22" t="n">
-        <v>100.5115</v>
+        <v>100.8248</v>
       </c>
       <c r="E22" t="n">
-        <v>98.2092</v>
+        <v>101.0004</v>
       </c>
       <c r="F22" t="n">
-        <v>100.2809</v>
+        <v>100.7412</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>99.6896</v>
+        <v>99.5</v>
       </c>
       <c r="C23" t="n">
-        <v>101.9651</v>
+        <v>100.1</v>
       </c>
       <c r="D23" t="n">
-        <v>100.509</v>
+        <v>100.7</v>
       </c>
       <c r="E23" t="n">
-        <v>98.1986</v>
+        <v>100.6</v>
       </c>
       <c r="F23" t="n">
-        <v>100.4345</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>99.81010000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>100.701</v>
+        <v>99.70310000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>100.4467</v>
+        <v>100.4551</v>
       </c>
       <c r="E24" t="n">
-        <v>99.0686</v>
+        <v>100.6871</v>
       </c>
       <c r="F24" t="n">
-        <v>100.5848</v>
+        <v>100.8479</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>99.9365</v>
+        <v>99.70010000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>100.4496</v>
+        <v>99.9221</v>
       </c>
       <c r="D25" t="n">
-        <v>100.8248</v>
+        <v>100.6475</v>
       </c>
       <c r="E25" t="n">
-        <v>101.0004</v>
+        <v>101.5727</v>
       </c>
       <c r="F25" t="n">
-        <v>100.7412</v>
+        <v>100.9375</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>101.9</v>
+        <v>100.1351</v>
       </c>
       <c r="C26" t="n">
-        <v>98.90000000000001</v>
+        <v>98.7189</v>
       </c>
       <c r="D26" t="n">
-        <v>100.9</v>
+        <v>100.793</v>
       </c>
       <c r="E26" t="n">
-        <v>103.2</v>
+        <v>101.87</v>
       </c>
       <c r="F26" t="n">
-        <v>101.2</v>
+        <v>101.0979</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>102.4</v>
+        <v>100.4223</v>
       </c>
       <c r="C27" t="n">
-        <v>98.90000000000001</v>
+        <v>98.6896</v>
       </c>
       <c r="D27" t="n">
-        <v>101</v>
+        <v>100.8516</v>
       </c>
       <c r="E27" t="n">
-        <v>104.2</v>
+        <v>101.9552</v>
       </c>
       <c r="F27" t="n">
-        <v>101.5</v>
+        <v>101.187</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>103</v>
+        <v>100.3615</v>
       </c>
       <c r="C28" t="n">
-        <v>100.4</v>
+        <v>98.11199999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>101</v>
+        <v>100.8514</v>
       </c>
       <c r="E28" t="n">
-        <v>104</v>
+        <v>101.7986</v>
       </c>
       <c r="F28" t="n">
-        <v>101.8</v>
+        <v>101.2431</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2016年1月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>100.1351</v>
+        <v>100.4133</v>
       </c>
       <c r="C29" t="n">
-        <v>98.7189</v>
+        <v>98.23180000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>100.793</v>
+        <v>100.8542</v>
       </c>
       <c r="E29" t="n">
-        <v>101.87</v>
+        <v>100.8732</v>
       </c>
       <c r="F29" t="n">
-        <v>101.0979</v>
+        <v>101.094</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>100.4223</v>
+        <v>100.6</v>
       </c>
       <c r="C30" t="n">
-        <v>98.6896</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>100.8516</v>
+        <v>100.9</v>
       </c>
       <c r="E30" t="n">
-        <v>101.9552</v>
+        <v>102.5</v>
       </c>
       <c r="F30" t="n">
-        <v>101.187</v>
+        <v>101.4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.3615</v>
+        <v>100.9</v>
       </c>
       <c r="C31" t="n">
-        <v>98.11199999999999</v>
+        <v>98.8</v>
       </c>
       <c r="D31" t="n">
-        <v>100.8514</v>
+        <v>100.9</v>
       </c>
       <c r="E31" t="n">
-        <v>101.7986</v>
+        <v>102.8</v>
       </c>
       <c r="F31" t="n">
-        <v>101.2431</v>
+        <v>101.7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>100.4133</v>
+        <v>101.5</v>
       </c>
       <c r="C32" t="n">
-        <v>98.23180000000001</v>
+        <v>98.5</v>
       </c>
       <c r="D32" t="n">
-        <v>100.8542</v>
+        <v>100.9</v>
       </c>
       <c r="E32" t="n">
-        <v>100.8732</v>
+        <v>102.9</v>
       </c>
       <c r="F32" t="n">
-        <v>101.094</v>
+        <v>101.9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>100.6</v>
+        <v>101.6</v>
       </c>
       <c r="C33" t="n">
-        <v>98.40000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="D33" t="n">
-        <v>100.9</v>
+        <v>101</v>
       </c>
       <c r="E33" t="n">
-        <v>102.5</v>
+        <v>103.2</v>
       </c>
       <c r="F33" t="n">
-        <v>101.4</v>
+        <v>101.6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.9</v>
+        <v>101.5</v>
       </c>
       <c r="C34" t="n">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="D34" t="n">
-        <v>100.9</v>
+        <v>100.7</v>
       </c>
       <c r="E34" t="n">
-        <v>102.8</v>
+        <v>102.2</v>
       </c>
       <c r="F34" t="n">
-        <v>101.7</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>101.5</v>
+        <v>101.9</v>
       </c>
       <c r="C35" t="n">
-        <v>98.5</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D35" t="n">
         <v>100.9</v>
       </c>
       <c r="E35" t="n">
-        <v>102.9</v>
+        <v>103.2</v>
       </c>
       <c r="F35" t="n">
-        <v>101.9</v>
+        <v>101.2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>101.6</v>
+        <v>102.4</v>
       </c>
       <c r="C36" t="n">
-        <v>98.5</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D36" t="n">
         <v>101</v>
       </c>
       <c r="E36" t="n">
-        <v>103.2</v>
+        <v>104.2</v>
       </c>
       <c r="F36" t="n">
-        <v>101.6</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>101.5</v>
+        <v>103</v>
       </c>
       <c r="C37" t="n">
-        <v>98.7</v>
+        <v>100.4</v>
       </c>
       <c r="D37" t="n">
-        <v>100.7</v>
+        <v>101</v>
       </c>
       <c r="E37" t="n">
-        <v>102.2</v>
+        <v>104</v>
       </c>
       <c r="F37" t="n">
-        <v>101.5</v>
+        <v>101.8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="C38" t="n">
-        <v>107.8</v>
+        <v>101</v>
       </c>
       <c r="D38" t="n">
-        <v>101.5</v>
+        <v>101</v>
       </c>
       <c r="E38" t="n">
-        <v>101.8</v>
+        <v>104.5</v>
       </c>
       <c r="F38" t="n">
-        <v>101.6</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>102.3</v>
+        <v>103.1</v>
       </c>
       <c r="C39" t="n">
-        <v>107.8</v>
+        <v>101.5</v>
       </c>
       <c r="D39" t="n">
-        <v>101.4</v>
+        <v>101</v>
       </c>
       <c r="E39" t="n">
-        <v>101.3</v>
+        <v>104</v>
       </c>
       <c r="F39" t="n">
-        <v>101.3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>101.6</v>
+        <v>103.3</v>
       </c>
       <c r="C40" t="n">
-        <v>106.6</v>
+        <v>102.2</v>
       </c>
       <c r="D40" t="n">
-        <v>101.3</v>
+        <v>101</v>
       </c>
       <c r="E40" t="n">
-        <v>100.9</v>
+        <v>104.4</v>
       </c>
       <c r="F40" t="n">
-        <v>101</v>
+        <v>102.1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2017年1月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>102.9</v>
+        <v>104.6</v>
       </c>
       <c r="C41" t="n">
-        <v>101</v>
+        <v>102.1</v>
       </c>
       <c r="D41" t="n">
-        <v>101</v>
+        <v>101.2</v>
       </c>
       <c r="E41" t="n">
-        <v>104.5</v>
+        <v>104.6</v>
       </c>
       <c r="F41" t="n">
-        <v>102</v>
+        <v>102.3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>103.1</v>
+        <v>104.7</v>
       </c>
       <c r="C42" t="n">
-        <v>101.5</v>
+        <v>101.8</v>
       </c>
       <c r="D42" t="n">
-        <v>101</v>
+        <v>101.3</v>
       </c>
       <c r="E42" t="n">
-        <v>104</v>
+        <v>104.6</v>
       </c>
       <c r="F42" t="n">
-        <v>102</v>
+        <v>102.2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>103.3</v>
+        <v>104.4</v>
       </c>
       <c r="C43" t="n">
-        <v>102.2</v>
+        <v>101.6</v>
       </c>
       <c r="D43" t="n">
-        <v>101</v>
+        <v>101.3</v>
       </c>
       <c r="E43" t="n">
-        <v>104.4</v>
+        <v>103.8</v>
       </c>
       <c r="F43" t="n">
-        <v>102.1</v>
+        <v>101.7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>104.6</v>
+        <v>103.5</v>
       </c>
       <c r="C44" t="n">
-        <v>102.1</v>
+        <v>101.7</v>
       </c>
       <c r="D44" t="n">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="E44" t="n">
-        <v>104.6</v>
+        <v>103.4</v>
       </c>
       <c r="F44" t="n">
-        <v>102.3</v>
+        <v>101.6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>104.7</v>
+        <v>103.4</v>
       </c>
       <c r="C45" t="n">
-        <v>101.8</v>
+        <v>103</v>
       </c>
       <c r="D45" t="n">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="E45" t="n">
-        <v>104.6</v>
+        <v>102.8</v>
       </c>
       <c r="F45" t="n">
-        <v>102.2</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>104.4</v>
+        <v>102.8</v>
       </c>
       <c r="C46" t="n">
-        <v>101.6</v>
+        <v>108</v>
       </c>
       <c r="D46" t="n">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="E46" t="n">
-        <v>103.8</v>
+        <v>102.4</v>
       </c>
       <c r="F46" t="n">
-        <v>101.7</v>
+        <v>101.2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>103.5</v>
+        <v>102.8</v>
       </c>
       <c r="C47" t="n">
-        <v>101.7</v>
+        <v>107.8</v>
       </c>
       <c r="D47" t="n">
-        <v>101.3</v>
+        <v>101.5</v>
       </c>
       <c r="E47" t="n">
-        <v>103.4</v>
+        <v>101.8</v>
       </c>
       <c r="F47" t="n">
         <v>101.6</v>
@@ -1475,45 +1475,45 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>103.4</v>
+        <v>102.3</v>
       </c>
       <c r="C48" t="n">
-        <v>103</v>
+        <v>107.8</v>
       </c>
       <c r="D48" t="n">
         <v>101.4</v>
       </c>
       <c r="E48" t="n">
-        <v>102.8</v>
+        <v>101.3</v>
       </c>
       <c r="F48" t="n">
-        <v>101.5</v>
+        <v>101.3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>102.8</v>
+        <v>101.6</v>
       </c>
       <c r="C49" t="n">
-        <v>108</v>
+        <v>106.6</v>
       </c>
       <c r="D49" t="n">
-        <v>101.4</v>
+        <v>101.3</v>
       </c>
       <c r="E49" t="n">
-        <v>102.4</v>
+        <v>100.9</v>
       </c>
       <c r="F49" t="n">
-        <v>101.2</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/data_month/zb/价格指数/分行业中类工业生产者出厂价格指数(上年同月=100)(2014-2017)/家具制造业工业生产者出厂价格指数(上年同月=100).xlsx
+++ b/data_month/zb/价格指数/分行业中类工业生产者出厂价格指数(上年同月=100)(2014-2017)/家具制造业工业生产者出厂价格指数(上年同月=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -463,1010 +463,1010 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2014-01</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99.6036</v>
+        <v>101.229</v>
       </c>
       <c r="C2" t="n">
-        <v>100.0928</v>
+        <v>101.3071</v>
       </c>
       <c r="D2" t="n">
-        <v>100.5509</v>
+        <v>101.7533</v>
       </c>
       <c r="E2" t="n">
-        <v>101.4728</v>
+        <v>97.0266</v>
       </c>
       <c r="F2" t="n">
-        <v>98.91589999999999</v>
+        <v>100.0246</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2014-02</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.89919999999999</v>
+        <v>101.3091</v>
       </c>
       <c r="C3" t="n">
-        <v>100.3184</v>
+        <v>101.7896</v>
       </c>
       <c r="D3" t="n">
-        <v>100.9081</v>
+        <v>101.4908</v>
       </c>
       <c r="E3" t="n">
-        <v>102.1503</v>
+        <v>96.8676</v>
       </c>
       <c r="F3" t="n">
-        <v>99.14279999999999</v>
+        <v>100.2888</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2014-03</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.87909999999999</v>
+        <v>101.1944</v>
       </c>
       <c r="C4" t="n">
-        <v>100.4133</v>
+        <v>101.6945</v>
       </c>
       <c r="D4" t="n">
-        <v>100.9195</v>
+        <v>101.3461</v>
       </c>
       <c r="E4" t="n">
-        <v>100.3967</v>
+        <v>96.6099</v>
       </c>
       <c r="F4" t="n">
-        <v>99.2534</v>
+        <v>100.4044</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2014-04</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100.2248</v>
+        <v>99.6036</v>
       </c>
       <c r="C5" t="n">
-        <v>100.2885</v>
+        <v>100.0928</v>
       </c>
       <c r="D5" t="n">
-        <v>101.0403</v>
+        <v>100.5509</v>
       </c>
       <c r="E5" t="n">
-        <v>99.3246</v>
+        <v>101.4728</v>
       </c>
       <c r="F5" t="n">
-        <v>99.339</v>
+        <v>98.91589999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2014-05</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100.315</v>
+        <v>99.89919999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>100.1423</v>
+        <v>100.3184</v>
       </c>
       <c r="D6" t="n">
-        <v>101.4032</v>
+        <v>100.9081</v>
       </c>
       <c r="E6" t="n">
-        <v>98.35290000000001</v>
+        <v>102.1503</v>
       </c>
       <c r="F6" t="n">
-        <v>99.6305</v>
+        <v>99.14279999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2014-06</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100.0816</v>
+        <v>99.87909999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>99.94119999999999</v>
+        <v>100.4133</v>
       </c>
       <c r="D7" t="n">
-        <v>101.69</v>
+        <v>100.9195</v>
       </c>
       <c r="E7" t="n">
-        <v>98.67919999999999</v>
+        <v>100.3967</v>
       </c>
       <c r="F7" t="n">
-        <v>99.893</v>
+        <v>99.2534</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014-07</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>100.5794</v>
+        <v>100.2248</v>
       </c>
       <c r="C8" t="n">
-        <v>99.9132</v>
+        <v>100.2885</v>
       </c>
       <c r="D8" t="n">
-        <v>101.8313</v>
+        <v>101.0403</v>
       </c>
       <c r="E8" t="n">
-        <v>98.52760000000001</v>
+        <v>99.3246</v>
       </c>
       <c r="F8" t="n">
-        <v>99.7865</v>
+        <v>99.339</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2014-08</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>100.5848</v>
+        <v>100.315</v>
       </c>
       <c r="C9" t="n">
-        <v>100.8362</v>
+        <v>100.1423</v>
       </c>
       <c r="D9" t="n">
-        <v>101.7791</v>
+        <v>101.4032</v>
       </c>
       <c r="E9" t="n">
-        <v>97.4384</v>
+        <v>98.35290000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>99.8794</v>
+        <v>99.6305</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2014-09</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>100.7383</v>
+        <v>100.0816</v>
       </c>
       <c r="C10" t="n">
-        <v>101.1837</v>
+        <v>99.94119999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>101.8988</v>
+        <v>101.69</v>
       </c>
       <c r="E10" t="n">
-        <v>97.2698</v>
+        <v>98.67919999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>100.0543</v>
+        <v>99.893</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2014-10</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>101.229</v>
+        <v>100.5794</v>
       </c>
       <c r="C11" t="n">
-        <v>101.3071</v>
+        <v>99.9132</v>
       </c>
       <c r="D11" t="n">
-        <v>101.7533</v>
+        <v>101.8313</v>
       </c>
       <c r="E11" t="n">
-        <v>97.0266</v>
+        <v>98.52760000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>100.0246</v>
+        <v>99.7865</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014-11</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>101.3091</v>
+        <v>100.5848</v>
       </c>
       <c r="C12" t="n">
-        <v>101.7896</v>
+        <v>100.8362</v>
       </c>
       <c r="D12" t="n">
-        <v>101.4908</v>
+        <v>101.7791</v>
       </c>
       <c r="E12" t="n">
-        <v>96.8676</v>
+        <v>97.4384</v>
       </c>
       <c r="F12" t="n">
-        <v>100.2888</v>
+        <v>99.8794</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2014-12</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>101.1944</v>
+        <v>100.7383</v>
       </c>
       <c r="C13" t="n">
-        <v>101.6945</v>
+        <v>101.1837</v>
       </c>
       <c r="D13" t="n">
-        <v>101.3461</v>
+        <v>101.8988</v>
       </c>
       <c r="E13" t="n">
-        <v>96.6099</v>
+        <v>97.2698</v>
       </c>
       <c r="F13" t="n">
-        <v>100.4044</v>
+        <v>100.0543</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2015-01</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>100.7772</v>
+        <v>99.5</v>
       </c>
       <c r="C14" t="n">
-        <v>101.7806</v>
+        <v>100.1</v>
       </c>
       <c r="D14" t="n">
-        <v>101.2339</v>
+        <v>100.7</v>
       </c>
       <c r="E14" t="n">
-        <v>96.68819999999999</v>
+        <v>100.6</v>
       </c>
       <c r="F14" t="n">
-        <v>100.6466</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2015-02</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>100.7286</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>101.6728</v>
+        <v>99.70310000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>100.9552</v>
+        <v>100.4551</v>
       </c>
       <c r="E15" t="n">
-        <v>96.77500000000001</v>
+        <v>100.6871</v>
       </c>
       <c r="F15" t="n">
-        <v>100.5885</v>
+        <v>100.8479</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2015-03</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>100.7287</v>
+        <v>99.70010000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>101.9228</v>
+        <v>99.9221</v>
       </c>
       <c r="D16" t="n">
-        <v>101.0149</v>
+        <v>100.6475</v>
       </c>
       <c r="E16" t="n">
-        <v>96.7676</v>
+        <v>101.5727</v>
       </c>
       <c r="F16" t="n">
-        <v>100.475</v>
+        <v>100.9375</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2015-04</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>100.3692</v>
+        <v>100.7772</v>
       </c>
       <c r="C17" t="n">
-        <v>102.0421</v>
+        <v>101.7806</v>
       </c>
       <c r="D17" t="n">
-        <v>100.8214</v>
+        <v>101.2339</v>
       </c>
       <c r="E17" t="n">
-        <v>99.5243</v>
+        <v>96.68819999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>100.4037</v>
+        <v>100.6466</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2015-05</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>100.3392</v>
+        <v>100.7286</v>
       </c>
       <c r="C18" t="n">
-        <v>102.4754</v>
+        <v>101.6728</v>
       </c>
       <c r="D18" t="n">
-        <v>100.676</v>
+        <v>100.9552</v>
       </c>
       <c r="E18" t="n">
-        <v>98.25369999999999</v>
+        <v>96.77500000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>100.2713</v>
+        <v>100.5885</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2015-06</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>99.9987</v>
+        <v>100.7287</v>
       </c>
       <c r="C19" t="n">
-        <v>102.2878</v>
+        <v>101.9228</v>
       </c>
       <c r="D19" t="n">
-        <v>100.5115</v>
+        <v>101.0149</v>
       </c>
       <c r="E19" t="n">
-        <v>98.2092</v>
+        <v>96.7676</v>
       </c>
       <c r="F19" t="n">
-        <v>100.2809</v>
+        <v>100.475</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2015-07</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>99.6896</v>
+        <v>100.3692</v>
       </c>
       <c r="C20" t="n">
-        <v>101.9651</v>
+        <v>102.0421</v>
       </c>
       <c r="D20" t="n">
-        <v>100.509</v>
+        <v>100.8214</v>
       </c>
       <c r="E20" t="n">
-        <v>98.1986</v>
+        <v>99.5243</v>
       </c>
       <c r="F20" t="n">
-        <v>100.4345</v>
+        <v>100.4037</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2015-08</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>99.81010000000001</v>
+        <v>100.3392</v>
       </c>
       <c r="C21" t="n">
-        <v>100.701</v>
+        <v>102.4754</v>
       </c>
       <c r="D21" t="n">
-        <v>100.4467</v>
+        <v>100.676</v>
       </c>
       <c r="E21" t="n">
-        <v>99.0686</v>
+        <v>98.25369999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>100.5848</v>
+        <v>100.2713</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2015-09</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>99.9365</v>
+        <v>99.9987</v>
       </c>
       <c r="C22" t="n">
-        <v>100.4496</v>
+        <v>102.2878</v>
       </c>
       <c r="D22" t="n">
-        <v>100.8248</v>
+        <v>100.5115</v>
       </c>
       <c r="E22" t="n">
-        <v>101.0004</v>
+        <v>98.2092</v>
       </c>
       <c r="F22" t="n">
-        <v>100.7412</v>
+        <v>100.2809</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2015-10</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>99.5</v>
+        <v>99.6896</v>
       </c>
       <c r="C23" t="n">
-        <v>100.1</v>
+        <v>101.9651</v>
       </c>
       <c r="D23" t="n">
-        <v>100.7</v>
+        <v>100.509</v>
       </c>
       <c r="E23" t="n">
-        <v>100.6</v>
+        <v>98.1986</v>
       </c>
       <c r="F23" t="n">
-        <v>101</v>
+        <v>100.4345</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2015-11</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>99.40000000000001</v>
+        <v>99.81010000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>99.70310000000001</v>
+        <v>100.701</v>
       </c>
       <c r="D24" t="n">
-        <v>100.4551</v>
+        <v>100.4467</v>
       </c>
       <c r="E24" t="n">
-        <v>100.6871</v>
+        <v>99.0686</v>
       </c>
       <c r="F24" t="n">
-        <v>100.8479</v>
+        <v>100.5848</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2015-12</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>99.70010000000001</v>
+        <v>99.9365</v>
       </c>
       <c r="C25" t="n">
-        <v>99.9221</v>
+        <v>100.4496</v>
       </c>
       <c r="D25" t="n">
-        <v>100.6475</v>
+        <v>100.8248</v>
       </c>
       <c r="E25" t="n">
-        <v>101.5727</v>
+        <v>101.0004</v>
       </c>
       <c r="F25" t="n">
-        <v>100.9375</v>
+        <v>100.7412</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2016-01</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>100.1351</v>
+        <v>101.9</v>
       </c>
       <c r="C26" t="n">
-        <v>98.7189</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>100.793</v>
+        <v>100.9</v>
       </c>
       <c r="E26" t="n">
-        <v>101.87</v>
+        <v>103.2</v>
       </c>
       <c r="F26" t="n">
-        <v>101.0979</v>
+        <v>101.2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2016-02</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>100.4223</v>
+        <v>102.4</v>
       </c>
       <c r="C27" t="n">
-        <v>98.6896</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>100.8516</v>
+        <v>101</v>
       </c>
       <c r="E27" t="n">
-        <v>101.9552</v>
+        <v>104.2</v>
       </c>
       <c r="F27" t="n">
-        <v>101.187</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2016-03</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.3615</v>
+        <v>103</v>
       </c>
       <c r="C28" t="n">
-        <v>98.11199999999999</v>
+        <v>100.4</v>
       </c>
       <c r="D28" t="n">
-        <v>100.8514</v>
+        <v>101</v>
       </c>
       <c r="E28" t="n">
-        <v>101.7986</v>
+        <v>104</v>
       </c>
       <c r="F28" t="n">
-        <v>101.2431</v>
+        <v>101.8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2016-04</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>100.4133</v>
+        <v>100.1351</v>
       </c>
       <c r="C29" t="n">
-        <v>98.23180000000001</v>
+        <v>98.7189</v>
       </c>
       <c r="D29" t="n">
-        <v>100.8542</v>
+        <v>100.793</v>
       </c>
       <c r="E29" t="n">
-        <v>100.8732</v>
+        <v>101.87</v>
       </c>
       <c r="F29" t="n">
-        <v>101.094</v>
+        <v>101.0979</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2016-05</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>100.6</v>
+        <v>100.4223</v>
       </c>
       <c r="C30" t="n">
-        <v>98.40000000000001</v>
+        <v>98.6896</v>
       </c>
       <c r="D30" t="n">
-        <v>100.9</v>
+        <v>100.8516</v>
       </c>
       <c r="E30" t="n">
-        <v>102.5</v>
+        <v>101.9552</v>
       </c>
       <c r="F30" t="n">
-        <v>101.4</v>
+        <v>101.187</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2016-06</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.9</v>
+        <v>100.3615</v>
       </c>
       <c r="C31" t="n">
-        <v>98.8</v>
+        <v>98.11199999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>100.9</v>
+        <v>100.8514</v>
       </c>
       <c r="E31" t="n">
-        <v>102.8</v>
+        <v>101.7986</v>
       </c>
       <c r="F31" t="n">
-        <v>101.7</v>
+        <v>101.2431</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2016-07</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>101.5</v>
+        <v>100.4133</v>
       </c>
       <c r="C32" t="n">
-        <v>98.5</v>
+        <v>98.23180000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>100.9</v>
+        <v>100.8542</v>
       </c>
       <c r="E32" t="n">
-        <v>102.9</v>
+        <v>100.8732</v>
       </c>
       <c r="F32" t="n">
-        <v>101.9</v>
+        <v>101.094</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2016-08</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>101.6</v>
+        <v>100.6</v>
       </c>
       <c r="C33" t="n">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>101</v>
+        <v>100.9</v>
       </c>
       <c r="E33" t="n">
-        <v>103.2</v>
+        <v>102.5</v>
       </c>
       <c r="F33" t="n">
-        <v>101.6</v>
+        <v>101.4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2016-09</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>101.5</v>
+        <v>100.9</v>
       </c>
       <c r="C34" t="n">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="D34" t="n">
-        <v>100.7</v>
+        <v>100.9</v>
       </c>
       <c r="E34" t="n">
-        <v>102.2</v>
+        <v>102.8</v>
       </c>
       <c r="F34" t="n">
-        <v>101.5</v>
+        <v>101.7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2016-10</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>101.9</v>
+        <v>101.5</v>
       </c>
       <c r="C35" t="n">
-        <v>98.90000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="D35" t="n">
         <v>100.9</v>
       </c>
       <c r="E35" t="n">
-        <v>103.2</v>
+        <v>102.9</v>
       </c>
       <c r="F35" t="n">
-        <v>101.2</v>
+        <v>101.9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2016-11</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>102.4</v>
+        <v>101.6</v>
       </c>
       <c r="C36" t="n">
-        <v>98.90000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="D36" t="n">
         <v>101</v>
       </c>
       <c r="E36" t="n">
-        <v>104.2</v>
+        <v>103.2</v>
       </c>
       <c r="F36" t="n">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2016-12</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>103</v>
+        <v>101.5</v>
       </c>
       <c r="C37" t="n">
-        <v>100.4</v>
+        <v>98.7</v>
       </c>
       <c r="D37" t="n">
-        <v>101</v>
+        <v>100.7</v>
       </c>
       <c r="E37" t="n">
-        <v>104</v>
+        <v>102.2</v>
       </c>
       <c r="F37" t="n">
-        <v>101.8</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2017-01</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>102.9</v>
+        <v>102.8</v>
       </c>
       <c r="C38" t="n">
-        <v>101</v>
+        <v>107.8</v>
       </c>
       <c r="D38" t="n">
-        <v>101</v>
+        <v>101.5</v>
       </c>
       <c r="E38" t="n">
-        <v>104.5</v>
+        <v>101.8</v>
       </c>
       <c r="F38" t="n">
-        <v>102</v>
+        <v>101.6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2017-02</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>103.1</v>
+        <v>102.3</v>
       </c>
       <c r="C39" t="n">
-        <v>101.5</v>
+        <v>107.8</v>
       </c>
       <c r="D39" t="n">
-        <v>101</v>
+        <v>101.4</v>
       </c>
       <c r="E39" t="n">
-        <v>104</v>
+        <v>101.3</v>
       </c>
       <c r="F39" t="n">
-        <v>102</v>
+        <v>101.3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2017-03</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>103.3</v>
+        <v>101.6</v>
       </c>
       <c r="C40" t="n">
-        <v>102.2</v>
+        <v>106.6</v>
       </c>
       <c r="D40" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="E40" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="F40" t="n">
         <v>101</v>
-      </c>
-      <c r="E40" t="n">
-        <v>104.4</v>
-      </c>
-      <c r="F40" t="n">
-        <v>102.1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2017-04</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>104.6</v>
+        <v>102.9</v>
       </c>
       <c r="C41" t="n">
-        <v>102.1</v>
+        <v>101</v>
       </c>
       <c r="D41" t="n">
-        <v>101.2</v>
+        <v>101</v>
       </c>
       <c r="E41" t="n">
-        <v>104.6</v>
+        <v>104.5</v>
       </c>
       <c r="F41" t="n">
-        <v>102.3</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2017-05</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>104.7</v>
+        <v>103.1</v>
       </c>
       <c r="C42" t="n">
-        <v>101.8</v>
+        <v>101.5</v>
       </c>
       <c r="D42" t="n">
-        <v>101.3</v>
+        <v>101</v>
       </c>
       <c r="E42" t="n">
-        <v>104.6</v>
+        <v>104</v>
       </c>
       <c r="F42" t="n">
-        <v>102.2</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2017-06</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B43" t="n">
+        <v>103.3</v>
+      </c>
+      <c r="C43" t="n">
+        <v>102.2</v>
+      </c>
+      <c r="D43" t="n">
+        <v>101</v>
+      </c>
+      <c r="E43" t="n">
         <v>104.4</v>
       </c>
-      <c r="C43" t="n">
-        <v>101.6</v>
-      </c>
-      <c r="D43" t="n">
-        <v>101.3</v>
-      </c>
-      <c r="E43" t="n">
-        <v>103.8</v>
-      </c>
       <c r="F43" t="n">
-        <v>101.7</v>
+        <v>102.1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2017-07</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>103.5</v>
+        <v>104.6</v>
       </c>
       <c r="C44" t="n">
-        <v>101.7</v>
+        <v>102.1</v>
       </c>
       <c r="D44" t="n">
-        <v>101.3</v>
+        <v>101.2</v>
       </c>
       <c r="E44" t="n">
-        <v>103.4</v>
+        <v>104.6</v>
       </c>
       <c r="F44" t="n">
-        <v>101.6</v>
+        <v>102.3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2017-08</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>103.4</v>
+        <v>104.7</v>
       </c>
       <c r="C45" t="n">
-        <v>103</v>
+        <v>101.8</v>
       </c>
       <c r="D45" t="n">
-        <v>101.4</v>
+        <v>101.3</v>
       </c>
       <c r="E45" t="n">
-        <v>102.8</v>
+        <v>104.6</v>
       </c>
       <c r="F45" t="n">
-        <v>101.5</v>
+        <v>102.2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2017-09</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>102.8</v>
+        <v>104.4</v>
       </c>
       <c r="C46" t="n">
-        <v>108</v>
+        <v>101.6</v>
       </c>
       <c r="D46" t="n">
-        <v>101.4</v>
+        <v>101.3</v>
       </c>
       <c r="E46" t="n">
-        <v>102.4</v>
+        <v>103.8</v>
       </c>
       <c r="F46" t="n">
-        <v>101.2</v>
+        <v>101.7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2017-10</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>102.8</v>
+        <v>103.5</v>
       </c>
       <c r="C47" t="n">
-        <v>107.8</v>
+        <v>101.7</v>
       </c>
       <c r="D47" t="n">
-        <v>101.5</v>
+        <v>101.3</v>
       </c>
       <c r="E47" t="n">
-        <v>101.8</v>
+        <v>103.4</v>
       </c>
       <c r="F47" t="n">
         <v>101.6</v>
@@ -1475,45 +1475,45 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2017-11</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>102.3</v>
+        <v>103.4</v>
       </c>
       <c r="C48" t="n">
-        <v>107.8</v>
+        <v>103</v>
       </c>
       <c r="D48" t="n">
         <v>101.4</v>
       </c>
       <c r="E48" t="n">
-        <v>101.3</v>
+        <v>102.8</v>
       </c>
       <c r="F48" t="n">
-        <v>101.3</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2017-12</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>101.6</v>
+        <v>102.8</v>
       </c>
       <c r="C49" t="n">
-        <v>106.6</v>
+        <v>108</v>
       </c>
       <c r="D49" t="n">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="E49" t="n">
-        <v>100.9</v>
+        <v>102.4</v>
       </c>
       <c r="F49" t="n">
-        <v>101</v>
+        <v>101.2</v>
       </c>
     </row>
   </sheetData>
